--- a/Assets/ArtRes/Excel/WeaponInfo.xlsx
+++ b/Assets/ArtRes/Excel/WeaponInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityWorkSpace\Unity2\RogueLike\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65388BFA-1F53-4CEE-9B23-B4603C98F069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE59170-420C-4232-9B6B-7A0A40B5A909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4990" yWindow="3750" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6490" yWindow="3790" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,26 @@
   </si>
   <si>
     <t>Fire/BlueCJB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UISprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/UI/FireBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/UI/PowerfulFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/UI/Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire/UI/BlueCJB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,18 +412,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.9140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +443,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -442,8 +466,11 @@
       <c r="F2" s="1">
         <v>6</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -462,8 +489,11 @@
       <c r="F3" s="1">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -482,8 +512,11 @@
       <c r="F4" s="1">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -501,6 +534,9 @@
       </c>
       <c r="F5" s="1">
         <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
